--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697819.441277655</v>
+        <v>2801999.075728726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8791972.79454916</v>
+        <v>8791972.794549162</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.23266981762882</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>108.5709691947124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>113.4448687040854</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>128.8771852996422</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.7870264142876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.12841052188712</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.4014735002803</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>293.7629027650899</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>183.7712894657356</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>147.6271302035537</v>
       </c>
       <c r="V10" t="n">
-        <v>4.831660956422851</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>110.0177171766861</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456784</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>130.4114987159129</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>38.61213096654814</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>77.39507264402552</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
         <v>199.022230457616</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>60.11729550773704</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>32.05158559392623</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2606,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>24.8326660635311</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>2.813978415465053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.3243999861102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>30.9719158638759</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>25.73194049497385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649821</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388742</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2415.099428388742</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.4185328474558</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>421.4185328474558</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962311</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="X4" t="n">
-        <v>603.0669976776956</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="Y4" t="n">
-        <v>603.0669976776956</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4580,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139987</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139987</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.170539913434</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.3669689068678</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>342.3669689068678</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>342.3669689068678</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.3669689068678</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.047335491682</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.781636884932</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450114</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>440.098254770655</v>
+        <v>460.171619808316</v>
       </c>
       <c r="V10" t="n">
-        <v>435.2177891581067</v>
+        <v>460.171619808316</v>
       </c>
       <c r="W10" t="n">
-        <v>435.2177891581067</v>
+        <v>460.171619808316</v>
       </c>
       <c r="X10" t="n">
-        <v>435.2177891581067</v>
+        <v>460.171619808316</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>460.171619808316</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5048,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400717</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5361,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5498,52 +5500,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5662,46 +5664,46 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1899.284239455937</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
@@ -5905,55 +5907,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650335</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7156,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558404</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630497</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>2588.787486630497</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>2588.787486630497</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>2588.787486630497</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>2421.591387345377</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532174</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388644</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192611</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684979</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7564,55 +7566,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2527.965271928681</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.40333084624518</v>
+        <v>127.256811246707</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253398</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>50.61478728573169</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.4141550350965</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>226.0671788815071</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.5330677581686</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>147.021377568698</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>213.918890572245</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>5.19973830615865</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>161.3036423121234</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>226.4057028288541</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.7441040526</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.7441040525</v>
-      </c>
       <c r="E4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186741</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14826.69604186741</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186737</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186725</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550045</v>
+        <v>-852915.9702550042</v>
       </c>
       <c r="C6" t="n">
         <v>475828.7754725877</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725879</v>
+        <v>475828.7754725878</v>
       </c>
       <c r="E6" t="n">
-        <v>224534.2570711253</v>
+        <v>224534.257071125</v>
       </c>
       <c r="F6" t="n">
+        <v>549946.7188784807</v>
+      </c>
+      <c r="G6" t="n">
         <v>549946.7188784806</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>549946.7188784804</v>
+      </c>
+      <c r="I6" t="n">
         <v>549946.7188784805</v>
       </c>
-      <c r="H6" t="n">
-        <v>549946.7188784806</v>
-      </c>
-      <c r="I6" t="n">
-        <v>549946.7188784807</v>
-      </c>
       <c r="J6" t="n">
-        <v>332415.516481203</v>
+        <v>332415.5164812027</v>
       </c>
       <c r="K6" t="n">
+        <v>549946.7188784801</v>
+      </c>
+      <c r="L6" t="n">
         <v>549946.7188784804</v>
       </c>
-      <c r="L6" t="n">
-        <v>549946.7188784806</v>
-      </c>
       <c r="M6" t="n">
-        <v>464891.6909429689</v>
+        <v>464891.6909429686</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784803</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784804</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784808</v>
+        <v>549946.7188784805</v>
       </c>
     </row>
   </sheetData>
@@ -26701,16 +26703,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.5011718458518</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>40.04450382349992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>138.6927746197426</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>236.3957064713653</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.45091224176599</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>139.1184105767407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>102.1474757758889</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>71.50998900591765</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>198.1590806065262</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>138.5847080020592</v>
       </c>
       <c r="V10" t="n">
-        <v>247.3059823674051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="30">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121648</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>430.4001870301144</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>342.8454457931495</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N42" t="n">
-        <v>288.8958573929165</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.3312853305614</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462691</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>291.8458072502402</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>205.0040068187905</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N42" t="n">
-        <v>157.5541453095832</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.34951124453992</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801999.075728726</v>
+        <v>2797986.465714733</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8791972.794549162</v>
+        <v>8791972.79454916</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.792004777348516</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>94.81275980261485</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933823</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.4448687040854</v>
+        <v>71.49724375680253</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>128.8771852996422</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>109.6870817625063</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>117.4014735002803</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>293.7629027650899</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>257.6276659754723</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>147.6271302035537</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>81.46084344268532</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>80.07147829118261</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.16423677622421</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4114987159129</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>77.39507264402552</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.05158559392623</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>11.79076481679217</v>
+        <v>206.8136332941418</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.3243999861102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>56.10180801516488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>30.9719158638759</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,37 +4345,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4433,28 +4433,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="V4" t="n">
-        <v>806.2962293494114</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="W4" t="n">
-        <v>806.2962293494114</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X4" t="n">
-        <v>806.2962293494114</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.2962293494114</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392464</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392464</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4658,7 +4658,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596504</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.669427940025</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>460.171619808316</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>460.171619808316</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>460.171619808316</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X10" t="n">
-        <v>460.171619808316</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y10" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732381</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2248.188593250933</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,7 +6259,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>964.489494667949</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579752</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2140.394052542956</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.76050189075468</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>127.256811246707</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.61478728573169</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.7894017452186</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.5330677581686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>213.918890572245</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D34" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>5.19973830615865</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>161.3036423121234</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
@@ -26340,22 +26340,22 @@
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405268</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405263</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.7441040526</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26435,16 +26435,16 @@
         <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-852915.9702550042</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725876</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725878</v>
+        <v>475828.7754725874</v>
       </c>
       <c r="E6" t="n">
-        <v>224534.257071125</v>
+        <v>224186.8778167683</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784807</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784806</v>
+        <v>549599.3396241235</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241236</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784805</v>
+        <v>549599.3396241235</v>
       </c>
       <c r="J6" t="n">
-        <v>332415.5164812027</v>
+        <v>332068.137226846</v>
       </c>
       <c r="K6" t="n">
-        <v>549946.7188784801</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="L6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241235</v>
       </c>
       <c r="M6" t="n">
-        <v>464891.6909429686</v>
+        <v>464544.3116886115</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784803</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784805</v>
+        <v>549599.3396241234</v>
       </c>
     </row>
   </sheetData>
@@ -26703,16 +26703,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>377.9418368861321</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>138.6927746197426</v>
+        <v>180.6403995670255</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>236.3957064713653</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>218.0651767076286</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,19 +27824,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>102.1474757758889</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>71.50998900591765</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>97.05537564521063</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>138.5847080020592</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="11">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32727,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34871,13 +34871,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2797986.465714733</v>
+        <v>2799746.996017518</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.792004777348516</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>74.5568185402483</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933823</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>71.49724375680253</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.00834840391932</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>74.5568185402492</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>109.6870817625063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677224</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>257.6276659754723</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>202.6460827821273</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.46084344268532</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.07147829118261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>108.5813113004298</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5379405516739</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>181.2557668969882</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>23.41986852521065</v>
       </c>
       <c r="X31" t="n">
-        <v>206.8136332941418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>45.66054613217656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>22.04658882052573</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>141.8220341496059</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>758.8371104375277</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>758.8371104375277</v>
+        <v>905.7270579354381</v>
       </c>
       <c r="X4" t="n">
-        <v>530.8475595395104</v>
+        <v>677.7375070374208</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678284</v>
+        <v>141.8220341496068</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4713,64 +4713,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758593</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.169188758593</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4834,22 +4834,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218339</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4998,16 +4998,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>376.7853475753374</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>148.7957966773201</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218339</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614.6217844681063</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5521,46 +5521,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.29168600076</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6442,10 +6442,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6457,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.8410298377092</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377092</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253735</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.282073811479</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.489494667949</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.76050189075468</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>55.21102825632967</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>70.88187642683982</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>263.1031298113804</v>
       </c>
       <c r="X31" t="n">
-        <v>18.89602209489539</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405268</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26432,7 +26432,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26444,7 +26444,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550042</v>
+        <v>-852915.9702550045</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725876</v>
+        <v>475828.7754725877</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725874</v>
+        <v>475828.7754725883</v>
       </c>
       <c r="E6" t="n">
-        <v>224186.8778167683</v>
+        <v>224499.5191456895</v>
       </c>
       <c r="F6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530446</v>
       </c>
       <c r="G6" t="n">
-        <v>549599.3396241235</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="H6" t="n">
-        <v>549599.3396241236</v>
+        <v>549911.9809530446</v>
       </c>
       <c r="I6" t="n">
-        <v>549599.3396241235</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="J6" t="n">
-        <v>332068.137226846</v>
+        <v>332380.7785557673</v>
       </c>
       <c r="K6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.980953045</v>
       </c>
       <c r="L6" t="n">
-        <v>549599.3396241235</v>
+        <v>549911.9809530446</v>
       </c>
       <c r="M6" t="n">
-        <v>464544.3116886115</v>
+        <v>464856.9530175326</v>
       </c>
       <c r="N6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530446</v>
       </c>
       <c r="O6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="P6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.9809530447</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.9418368861321</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>336.3649071132052</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>180.6403995670255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.5146499326717</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>336.3649071132043</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>218.0651767076286</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351651</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>97.05537564521063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>1.271887357492801</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.15744254776803</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.1238099094095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32007,7 +32007,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N14" t="n">
         <v>981.2715114159425</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
